--- a/INTLINE/data/542/BOKFS/Monthly_FS.xlsx
+++ b/INTLINE/data/542/BOKFS/Monthly_FS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2126C4DE-93DD-45BF-BA9D-95FD4EF6FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04AAF0E-BF30-4717-BDC6-61EC406225B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3038,13 +3038,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11666,13 +11666,13 @@
       </c>
     </row>
     <row r="2" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>923</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -16524,13 +16524,13 @@
       </c>
     </row>
     <row r="4" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -21138,13 +21138,13 @@
       <c r="AIK5" s="1843"/>
     </row>
     <row r="6" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -25368,13 +25368,13 @@
       <c r="AIK7" s="1843"/>
     </row>
     <row r="8" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -29118,13 +29118,13 @@
       <c r="AIK9" s="1843"/>
     </row>
     <row r="10" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>928</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -32766,13 +32766,13 @@
       </c>
     </row>
     <row r="12" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>945</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -36228,13 +36228,13 @@
       </c>
     </row>
     <row r="14" spans="1:921" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>945</v>
       </c>
       <c r="D14" s="5" t="s">
